--- a/Doc/excel/testConfig.xlsx
+++ b/Doc/excel/testConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="10305"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>数值，不管什么值，都会转成字符串</t>
   </si>
@@ -36,31 +36,19 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>fasdfa</t>
+    <t>n</t>
   </si>
   <si>
-    <t>fasdewrqwefa</t>
+    <t>s</t>
   </si>
   <si>
-    <t>fasdfasdf</t>
+    <t>b</t>
   </si>
   <si>
-    <t>dsda</t>
+    <t>a</t>
   </si>
   <si>
-    <t>ffads</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>哈哈哈哈dfasd32432</t>
-  </si>
-  <si>
-    <t>62%@*^&amp;*@&amp;(*&amp;)*)</t>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -70,8 +58,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +77,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -96,6 +123,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -103,8 +146,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,55 +177,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,9 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,38 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,181 +229,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,8 +435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,39 +448,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +481,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1022,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1071,21 +1059,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1096,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1107,45 +1095,45 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>5.5555</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>6.66666</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>7.77777</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1153,23 +1141,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
         <v>9</v>
       </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/excel/testConfig.xlsx
+++ b/Doc/excel/testConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +70,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -77,109 +78,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +101,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,8 +123,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +206,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,13 +223,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,169 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +414,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,19 +446,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,30 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -505,15 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1105,7 +1105,6 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
@@ -1114,7 +1113,6 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1121,6 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
